--- a/tableKush.xlsx
+++ b/tableKush.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danilbogatov/PycharmProjects/tableParserForSstu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B20C5F-DA8F-D54B-AF82-D4D0841D3409}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F713B43E-7BBB-F940-861B-BFA633CAF82F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,11 +357,14 @@
   </sheetPr>
   <dimension ref="A1:AH28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
+      <selection activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="33" width="6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5"/>
@@ -502,15 +505,15 @@
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:AG2" ca="1" si="2">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -522,11 +525,11 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -534,35 +537,35 @@
       </c>
       <c r="K2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -570,7 +573,7 @@
       </c>
       <c r="T2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -578,7 +581,7 @@
       </c>
       <c r="V2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -586,11 +589,11 @@
       </c>
       <c r="X2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -598,23 +601,23 @@
       </c>
       <c r="AA2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -622,11 +625,11 @@
       </c>
       <c r="AG2" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="2">
         <f t="shared" ref="AH2:AH28" ca="1" si="3">RAND()</f>
-        <v>0.94909715862935873</v>
+        <v>0.98134729859386849</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -636,7 +639,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B28" ca="1" si="4">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -651,27 +654,27 @@
       </c>
       <c r="F3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -687,27 +690,27 @@
       </c>
       <c r="O3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -715,11 +718,11 @@
       </c>
       <c r="V3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -731,11 +734,11 @@
       </c>
       <c r="Z3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB3" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -743,11 +746,11 @@
       </c>
       <c r="AC3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE3" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -755,15 +758,15 @@
       </c>
       <c r="AF3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH3" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89340087921166955</v>
+        <v>0.60045278857710227</v>
       </c>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -777,14 +780,14 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C28" ca="1" si="6">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ref="E4:AG4" ca="1" si="7">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -796,11 +799,11 @@
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -812,19 +815,19 @@
       </c>
       <c r="L4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -832,35 +835,35 @@
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" ca="1" si="7"/>
@@ -876,11 +879,11 @@
       </c>
       <c r="AB4" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -888,19 +891,19 @@
       </c>
       <c r="AE4" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG4" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41873043841861701</v>
+        <v>5.559444611271569E-2</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -910,11 +913,11 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D28" ca="1" si="8">RANDBETWEEN(-1,1)</f>
@@ -925,31 +928,31 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" ref="F5:AG5" ca="1" si="9">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -961,51 +964,51 @@
       </c>
       <c r="O5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -1013,11 +1016,11 @@
       </c>
       <c r="AB5" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -1029,7 +1032,7 @@
       </c>
       <c r="AF5" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -1037,7 +1040,7 @@
       </c>
       <c r="AH5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94580586388448895</v>
+        <v>0.81730316991482144</v>
       </c>
     </row>
     <row r="6" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1051,15 +1054,15 @@
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" ref="E6:E28" ca="1" si="10">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>5</v>
@@ -1070,23 +1073,23 @@
       </c>
       <c r="H6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="3">
         <f t="shared" ca="1" si="11"/>
@@ -1102,7 +1105,7 @@
       </c>
       <c r="P6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" ca="1" si="11"/>
@@ -1110,7 +1113,7 @@
       </c>
       <c r="R6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" s="3">
         <f t="shared" ca="1" si="11"/>
@@ -1126,7 +1129,7 @@
       </c>
       <c r="V6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W6" s="3">
         <f t="shared" ca="1" si="11"/>
@@ -1134,7 +1137,7 @@
       </c>
       <c r="X6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="3">
         <f t="shared" ca="1" si="11"/>
@@ -1142,11 +1145,11 @@
       </c>
       <c r="Z6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" ca="1" si="11"/>
@@ -1154,27 +1157,27 @@
       </c>
       <c r="AC6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="3">
         <f t="shared" ca="1" si="11"/>
         <v>-1</v>
       </c>
       <c r="AH6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.57897608439470494</v>
+        <f ca="1">RAND()</f>
+        <v>0.76491853431950751</v>
       </c>
     </row>
     <row r="7" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1188,7 +1191,7 @@
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -1196,7 +1199,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" ref="F7:F28" ca="1" si="12">RANDBETWEEN(-1,1)</f>
@@ -1207,19 +1210,19 @@
       </c>
       <c r="H7" s="3">
         <f t="shared" ref="H7:AG7" ca="1" si="13">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -1227,11 +1230,11 @@
       </c>
       <c r="M7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -1239,11 +1242,11 @@
       </c>
       <c r="P7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R7" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -1259,23 +1262,23 @@
       </c>
       <c r="U7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -1299,7 +1302,7 @@
       </c>
       <c r="AE7" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="3">
         <f t="shared" ca="1" si="13"/>
@@ -1311,7 +1314,7 @@
       </c>
       <c r="AH7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.18884591231279291</v>
+        <v>0.59749011783025019</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1321,27 +1324,27 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" ref="G8:G28" ca="1" si="14">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>5</v>
@@ -1356,27 +1359,27 @@
       </c>
       <c r="K8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -1384,35 +1387,35 @@
       </c>
       <c r="R8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z8" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -1420,15 +1423,15 @@
       </c>
       <c r="AA8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" ca="1" si="15"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" ca="1" si="15"/>
@@ -1448,7 +1451,7 @@
       </c>
       <c r="AH8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47942745206782444</v>
+        <v>0.90341878628258954</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1458,31 +1461,31 @@
       </c>
       <c r="B9" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ref="H9:H28" ca="1" si="16">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>5</v>
@@ -1493,7 +1496,7 @@
       </c>
       <c r="K9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -1501,31 +1504,31 @@
       </c>
       <c r="M9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -1533,27 +1536,27 @@
       </c>
       <c r="U9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="3">
         <f t="shared" ca="1" si="17"/>
@@ -1561,31 +1564,31 @@
       </c>
       <c r="AB9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="3">
         <f t="shared" ca="1" si="17"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72247192981432773</v>
+        <v>0.92398732521374649</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1595,11 +1598,11 @@
       </c>
       <c r="B10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -1615,11 +1618,11 @@
       </c>
       <c r="G10" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" ref="I10:I28" ca="1" si="18">RANDBETWEEN(-1,1)</f>
@@ -1630,19 +1633,19 @@
       </c>
       <c r="K10" s="3">
         <f t="shared" ref="K10:AG10" ca="1" si="19">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" ca="1" si="19"/>
@@ -1650,23 +1653,23 @@
       </c>
       <c r="P10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="3">
         <f t="shared" ca="1" si="19"/>
@@ -1674,7 +1677,7 @@
       </c>
       <c r="V10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W10" s="3">
         <f t="shared" ca="1" si="19"/>
@@ -1682,7 +1685,7 @@
       </c>
       <c r="X10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y10" s="3">
         <f t="shared" ca="1" si="19"/>
@@ -1690,15 +1693,15 @@
       </c>
       <c r="Z10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="3">
         <f t="shared" ca="1" si="19"/>
@@ -1718,11 +1721,11 @@
       </c>
       <c r="AG10" s="3">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92547750168453957</v>
+        <v>0.34803615495595874</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1740,23 +1743,23 @@
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" ca="1" si="18"/>
@@ -1764,26 +1767,26 @@
       </c>
       <c r="J11" s="3">
         <f ca="1">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" ref="L11:AG11" ca="1" si="20">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" ca="1" si="20"/>
@@ -1791,7 +1794,7 @@
       </c>
       <c r="Q11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R11" s="3">
         <f t="shared" ca="1" si="20"/>
@@ -1799,7 +1802,7 @@
       </c>
       <c r="S11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T11" s="3">
         <f t="shared" ca="1" si="20"/>
@@ -1807,27 +1810,27 @@
       </c>
       <c r="U11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="3">
         <f t="shared" ca="1" si="20"/>
@@ -1835,19 +1838,19 @@
       </c>
       <c r="AB11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE11" s="3">
         <f t="shared" ca="1" si="20"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="3">
         <f t="shared" ca="1" si="20"/>
@@ -1858,8 +1861,8 @@
         <v>-1</v>
       </c>
       <c r="AH11" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.74059938720812524</v>
+        <f ca="1">RAND()</f>
+        <v>0.1231563857826965</v>
       </c>
     </row>
     <row r="12" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1869,7 +1872,7 @@
       </c>
       <c r="B12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -1881,7 +1884,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" ca="1" si="12"/>
@@ -1889,7 +1892,7 @@
       </c>
       <c r="G12" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" ca="1" si="16"/>
@@ -1901,18 +1904,18 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" ref="J12:J28" ca="1" si="21">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" ref="K12:K28" ca="1" si="22">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="M12" s="3">
         <f t="shared" ref="M12:AG12" ca="1" si="23">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" ca="1" si="23"/>
@@ -1924,23 +1927,23 @@
       </c>
       <c r="P12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U12" s="3">
         <f t="shared" ca="1" si="23"/>
@@ -1952,7 +1955,7 @@
       </c>
       <c r="W12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" ca="1" si="23"/>
@@ -1960,7 +1963,7 @@
       </c>
       <c r="Y12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="3">
         <f t="shared" ca="1" si="23"/>
@@ -1972,7 +1975,7 @@
       </c>
       <c r="AB12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="3">
         <f t="shared" ca="1" si="23"/>
@@ -1980,11 +1983,11 @@
       </c>
       <c r="AD12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="3">
         <f t="shared" ca="1" si="23"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF12" s="3">
         <f t="shared" ca="1" si="23"/>
@@ -1996,7 +1999,7 @@
       </c>
       <c r="AH12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2585718686756517E-2</v>
+        <v>0.51131064289011618</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2010,15 +2013,15 @@
       </c>
       <c r="C13" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" ca="1" si="12"/>
@@ -2034,26 +2037,26 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" ref="L13:L28" ca="1" si="24">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" ref="N13:AG13" ca="1" si="25">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O13" s="3">
         <f t="shared" ca="1" si="25"/>
@@ -2061,11 +2064,11 @@
       </c>
       <c r="P13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13" s="3">
         <f t="shared" ca="1" si="25"/>
@@ -2073,11 +2076,11 @@
       </c>
       <c r="S13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U13" s="3">
         <f t="shared" ca="1" si="25"/>
@@ -2085,7 +2088,7 @@
       </c>
       <c r="V13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W13" s="3">
         <f t="shared" ca="1" si="25"/>
@@ -2093,15 +2096,15 @@
       </c>
       <c r="X13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA13" s="3">
         <f t="shared" ca="1" si="25"/>
@@ -2109,19 +2112,19 @@
       </c>
       <c r="AB13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="3">
         <f t="shared" ca="1" si="25"/>
@@ -2129,11 +2132,11 @@
       </c>
       <c r="AG13" s="3">
         <f t="shared" ca="1" si="25"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH13" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>0.92049787426284846</v>
+        <f ca="1">RAND()</f>
+        <v>0.5775414528963253</v>
       </c>
     </row>
     <row r="14" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2143,15 +2146,15 @@
       </c>
       <c r="B14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -2159,7 +2162,7 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -2171,7 +2174,7 @@
       </c>
       <c r="I14" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" ca="1" si="21"/>
@@ -2179,30 +2182,30 @@
       </c>
       <c r="K14" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <f t="shared" ref="M14:M28" ca="1" si="26">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" ref="O14:AG14" ca="1" si="27">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" ca="1" si="27"/>
@@ -2210,15 +2213,15 @@
       </c>
       <c r="S14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" ca="1" si="27"/>
@@ -2230,31 +2233,31 @@
       </c>
       <c r="X14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE14" s="3">
         <f t="shared" ca="1" si="27"/>
@@ -2262,15 +2265,15 @@
       </c>
       <c r="AF14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG14" s="3">
         <f t="shared" ca="1" si="27"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88720282713053078</v>
+        <v>0.88671826037819912</v>
       </c>
     </row>
     <row r="15" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2280,7 +2283,7 @@
       </c>
       <c r="B15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -2292,19 +2295,19 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" ca="1" si="18"/>
@@ -2312,7 +2315,7 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" ca="1" si="22"/>
@@ -2324,50 +2327,50 @@
       </c>
       <c r="M15" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" ref="N15:N28" ca="1" si="28">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="P15" s="3">
         <f t="shared" ref="P15:AG15" ca="1" si="29">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="3">
         <f t="shared" ca="1" si="29"/>
@@ -2379,19 +2382,19 @@
       </c>
       <c r="AA15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="3">
         <f t="shared" ca="1" si="29"/>
@@ -2399,15 +2402,15 @@
       </c>
       <c r="AF15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="3">
         <f t="shared" ca="1" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.58211749616861064</v>
+        <v>8.6732813733534142E-2</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2417,7 +2420,7 @@
       </c>
       <c r="B16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -2425,11 +2428,11 @@
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" ca="1" si="12"/>
@@ -2441,7 +2444,7 @@
       </c>
       <c r="H16" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" ca="1" si="18"/>
@@ -2449,19 +2452,19 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" ca="1" si="28"/>
@@ -2469,7 +2472,7 @@
       </c>
       <c r="O16" s="3">
         <f t="shared" ref="O16:O28" ca="1" si="30">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>5</v>
@@ -2488,15 +2491,15 @@
       </c>
       <c r="T16" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U16" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" ca="1" si="31"/>
@@ -2512,7 +2515,7 @@
       </c>
       <c r="Z16" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="3">
         <f t="shared" ca="1" si="31"/>
@@ -2520,15 +2523,15 @@
       </c>
       <c r="AB16" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="3">
         <f t="shared" ca="1" si="31"/>
@@ -2540,11 +2543,11 @@
       </c>
       <c r="AG16" s="3">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH16" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17111568352768303</v>
+        <v>0.21482741403018901</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2554,7 +2557,7 @@
       </c>
       <c r="B17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -2562,11 +2565,11 @@
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" ca="1" si="12"/>
@@ -2574,7 +2577,7 @@
       </c>
       <c r="G17" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" ca="1" si="16"/>
@@ -2582,19 +2585,19 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <f t="shared" ca="1" si="26"/>
@@ -2602,7 +2605,7 @@
       </c>
       <c r="N17" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <f t="shared" ca="1" si="30"/>
@@ -2610,18 +2613,18 @@
       </c>
       <c r="P17" s="3">
         <f t="shared" ref="P17:P28" ca="1" si="32">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R17" s="3">
         <f t="shared" ref="R17:AG17" ca="1" si="33">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" ca="1" si="33"/>
@@ -2633,19 +2636,19 @@
       </c>
       <c r="V17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="3">
         <f t="shared" ca="1" si="33"/>
@@ -2653,19 +2656,19 @@
       </c>
       <c r="AA17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="3">
         <f t="shared" ca="1" si="33"/>
@@ -2673,15 +2676,15 @@
       </c>
       <c r="AF17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="3">
         <f t="shared" ca="1" si="33"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41735942509480639</v>
+        <v>0.99723520605823379</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2691,19 +2694,19 @@
       </c>
       <c r="B18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" ca="1" si="12"/>
@@ -2711,23 +2714,23 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" ca="1" si="24"/>
@@ -2735,7 +2738,7 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" ca="1" si="28"/>
@@ -2762,11 +2765,11 @@
       </c>
       <c r="T18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
         <f t="shared" ca="1" si="35"/>
@@ -2778,15 +2781,15 @@
       </c>
       <c r="X18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18" s="3">
         <f t="shared" ca="1" si="35"/>
@@ -2794,19 +2797,19 @@
       </c>
       <c r="AB18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF18" s="3">
         <f t="shared" ca="1" si="35"/>
@@ -2814,11 +2817,11 @@
       </c>
       <c r="AG18" s="3">
         <f t="shared" ca="1" si="35"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81122033056804121</v>
+        <v>0.67381725926304514</v>
       </c>
     </row>
     <row r="19" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2828,19 +2831,19 @@
       </c>
       <c r="B19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" ca="1" si="12"/>
@@ -2848,7 +2851,7 @@
       </c>
       <c r="G19" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" ca="1" si="16"/>
@@ -2860,11 +2863,11 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" ca="1" si="24"/>
@@ -2872,23 +2875,23 @@
       </c>
       <c r="M19" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O19" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P19" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q19" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R19" s="3">
         <f t="shared" ref="R19:R28" ca="1" si="36">RANDBETWEEN(-1,1)</f>
@@ -2899,7 +2902,7 @@
       </c>
       <c r="T19" s="3">
         <f t="shared" ref="T19:AG19" ca="1" si="37">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" s="3">
         <f t="shared" ca="1" si="37"/>
@@ -2915,19 +2918,19 @@
       </c>
       <c r="X19" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z19" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="3">
         <f t="shared" ca="1" si="37"/>
@@ -2947,15 +2950,15 @@
       </c>
       <c r="AF19" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" ca="1" si="37"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61867473528395844</v>
+        <v>0.81798181644988788</v>
       </c>
     </row>
     <row r="20" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2965,27 +2968,27 @@
       </c>
       <c r="B20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" ca="1" si="16"/>
@@ -2993,15 +2996,15 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" ca="1" si="24"/>
@@ -3013,11 +3016,11 @@
       </c>
       <c r="N20" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="O20" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P20" s="3">
         <f t="shared" ca="1" si="32"/>
@@ -3029,7 +3032,7 @@
       </c>
       <c r="R20" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <f t="shared" ref="S20:S28" ca="1" si="38">RANDBETWEEN(-1,1)</f>
@@ -3040,15 +3043,15 @@
       </c>
       <c r="U20" s="3">
         <f t="shared" ref="U20:AG20" ca="1" si="39">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W20" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="3">
         <f t="shared" ca="1" si="39"/>
@@ -3064,35 +3067,35 @@
       </c>
       <c r="AA20" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB20" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20" s="3">
         <f t="shared" ca="1" si="39"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.1562309353842908E-2</v>
+        <v>0.26106528415485364</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3114,15 +3117,15 @@
       </c>
       <c r="E21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" ca="1" si="16"/>
@@ -3138,15 +3141,15 @@
       </c>
       <c r="K21" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M21" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" ca="1" si="28"/>
@@ -3162,19 +3165,19 @@
       </c>
       <c r="Q21" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R21" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S21" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
         <f t="shared" ref="T21:T28" ca="1" si="40">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>5</v>
@@ -3185,15 +3188,15 @@
       </c>
       <c r="W21" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="3">
         <f t="shared" ca="1" si="41"/>
@@ -3201,23 +3204,23 @@
       </c>
       <c r="AA21" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB21" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21" s="3">
         <f t="shared" ca="1" si="41"/>
@@ -3225,11 +3228,11 @@
       </c>
       <c r="AG21" s="3">
         <f t="shared" ca="1" si="41"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41368259429348242</v>
+        <v>0.32676724637080956</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3239,19 +3242,19 @@
       </c>
       <c r="B22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" ca="1" si="12"/>
@@ -3263,7 +3266,7 @@
       </c>
       <c r="H22" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" ca="1" si="18"/>
@@ -3279,23 +3282,23 @@
       </c>
       <c r="L22" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O22" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P22" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="3">
         <f t="shared" ca="1" si="34"/>
@@ -3303,38 +3306,38 @@
       </c>
       <c r="R22" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T22" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U22" s="3">
         <f t="shared" ref="U22:U28" ca="1" si="42">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="W22" s="3">
         <f t="shared" ref="W22:AG22" ca="1" si="43">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z22" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="3">
         <f t="shared" ca="1" si="43"/>
@@ -3342,31 +3345,31 @@
       </c>
       <c r="AB22" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC22" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD22" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE22" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF22" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="3">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH22" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47198722206943744</v>
+        <v>0.35208056914639496</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3380,7 +3383,7 @@
       </c>
       <c r="C23" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -3392,11 +3395,11 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" ca="1" si="16"/>
@@ -3404,19 +3407,19 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="3">
         <f t="shared" ca="1" si="26"/>
@@ -3424,39 +3427,39 @@
       </c>
       <c r="N23" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P23" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q23" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="3">
         <f t="shared" ref="V23:V28" ca="1" si="44">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W23" s="4" t="s">
         <v>5</v>
@@ -3471,39 +3474,39 @@
       </c>
       <c r="Z23" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD23" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="3">
         <f t="shared" ca="1" si="45"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH23" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39898546349060127</v>
+        <v>0.61422628411503588</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3513,7 +3516,7 @@
       </c>
       <c r="B24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -3525,7 +3528,7 @@
       </c>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" ca="1" si="12"/>
@@ -3533,19 +3536,19 @@
       </c>
       <c r="G24" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" ca="1" si="22"/>
@@ -3553,7 +3556,7 @@
       </c>
       <c r="L24" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="3">
         <f t="shared" ca="1" si="26"/>
@@ -3565,15 +3568,15 @@
       </c>
       <c r="O24" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P24" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <f t="shared" ca="1" si="36"/>
@@ -3589,7 +3592,7 @@
       </c>
       <c r="U24" s="3">
         <f t="shared" ca="1" si="42"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V24" s="3">
         <f t="shared" ca="1" si="44"/>
@@ -3597,30 +3600,30 @@
       </c>
       <c r="W24" s="3">
         <f t="shared" ref="W24:W28" ca="1" si="46">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="4" t="s">
         <v>5</v>
       </c>
       <c r="Y24" s="3">
         <f t="shared" ref="Y24:AG24" ca="1" si="47">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z24" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB24" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC24" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="3">
         <f t="shared" ca="1" si="47"/>
@@ -3628,11 +3631,11 @@
       </c>
       <c r="AE24" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AF24" s="3">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG24" s="3">
         <f t="shared" ca="1" si="47"/>
@@ -3640,7 +3643,7 @@
       </c>
       <c r="AH24" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.27752783527678471</v>
+        <v>0.61859058036765302</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3650,7 +3653,7 @@
       </c>
       <c r="B25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -3658,15 +3661,15 @@
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -3674,7 +3677,7 @@
       </c>
       <c r="H25" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" ca="1" si="18"/>
@@ -3682,7 +3685,7 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" ca="1" si="22"/>
@@ -3694,7 +3697,7 @@
       </c>
       <c r="M25" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" ca="1" si="28"/>
@@ -3702,23 +3705,23 @@
       </c>
       <c r="O25" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R25" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S25" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" ca="1" si="40"/>
@@ -3726,50 +3729,50 @@
       </c>
       <c r="U25" s="3">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V25" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W25" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="3">
         <f t="shared" ref="X25:X28" ca="1" si="48">RANDBETWEEN(-1,1)</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y25" s="4" t="s">
         <v>5</v>
       </c>
       <c r="Z25" s="3">
         <f t="shared" ref="Z25:AG25" ca="1" si="49">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="3">
         <f t="shared" ca="1" si="49"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="3">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25" s="3">
         <f t="shared" ca="1" si="49"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25" s="3">
         <f t="shared" ca="1" si="49"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="3">
         <f t="shared" ca="1" si="49"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF25" s="3">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG25" s="3">
         <f t="shared" ca="1" si="49"/>
@@ -3777,7 +3780,7 @@
       </c>
       <c r="AH25" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71070505978175036</v>
+        <v>0.37207644617100011</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3787,11 +3790,11 @@
       </c>
       <c r="B26" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -3803,7 +3806,7 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -3811,7 +3814,7 @@
       </c>
       <c r="H26" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" ca="1" si="18"/>
@@ -3831,15 +3834,15 @@
       </c>
       <c r="M26" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" ca="1" si="32"/>
@@ -3851,46 +3854,46 @@
       </c>
       <c r="R26" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X26" s="3">
         <f t="shared" ca="1" si="48"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
         <f t="shared" ref="Y26:Y28" ca="1" si="50">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="AA26" s="3">
         <f t="shared" ref="AA26:AG26" ca="1" si="51">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB26" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" ca="1" si="51"/>
@@ -3898,7 +3901,7 @@
       </c>
       <c r="AD26" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" ca="1" si="51"/>
@@ -3906,15 +3909,15 @@
       </c>
       <c r="AF26" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="3">
         <f t="shared" ca="1" si="51"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH26" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33560555558013383</v>
+        <v>0.28041558589603444</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3924,7 +3927,7 @@
       </c>
       <c r="B27" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" ca="1" si="6"/>
@@ -3932,7 +3935,7 @@
       </c>
       <c r="D27" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -3940,7 +3943,7 @@
       </c>
       <c r="F27" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -3948,11 +3951,11 @@
       </c>
       <c r="H27" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" ca="1" si="21"/>
@@ -3960,27 +3963,27 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" ca="1" si="24"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="M27" s="3">
         <f t="shared" ca="1" si="26"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P27" s="3">
         <f t="shared" ca="1" si="32"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q27" s="3">
         <f t="shared" ca="1" si="34"/>
@@ -3988,15 +3991,15 @@
       </c>
       <c r="R27" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S27" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T27" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <f t="shared" ca="1" si="42"/>
@@ -4004,7 +4007,7 @@
       </c>
       <c r="V27" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W27" s="3">
         <f t="shared" ca="1" si="46"/>
@@ -4012,11 +4015,11 @@
       </c>
       <c r="X27" s="3">
         <f t="shared" ca="1" si="48"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y27" s="3">
         <f t="shared" ca="1" si="50"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="3">
         <f ca="1">RANDBETWEEN(-1,1)</f>
@@ -4027,31 +4030,31 @@
       </c>
       <c r="AB27" s="3">
         <f t="shared" ref="AB27:AG27" ca="1" si="52">RANDBETWEEN(-1,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF27" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="3">
         <f t="shared" ca="1" si="52"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43112954396087122</v>
+        <v>0.38739787422323291</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4061,11 +4064,11 @@
       </c>
       <c r="B28" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -4073,11 +4076,11 @@
       </c>
       <c r="E28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" ca="1" si="14"/>
@@ -4085,19 +4088,19 @@
       </c>
       <c r="H28" s="3">
         <f t="shared" ca="1" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" ca="1" si="24"/>
@@ -4109,11 +4112,11 @@
       </c>
       <c r="N28" s="3">
         <f t="shared" ca="1" si="28"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O28" s="3">
         <f t="shared" ca="1" si="30"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="3">
         <f t="shared" ca="1" si="32"/>
@@ -4121,35 +4124,35 @@
       </c>
       <c r="Q28" s="3">
         <f t="shared" ca="1" si="34"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R28" s="3">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" s="3">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T28" s="3">
         <f t="shared" ca="1" si="40"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U28" s="3">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="3">
         <f t="shared" ca="1" si="44"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W28" s="3">
         <f t="shared" ca="1" si="46"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X28" s="3">
         <f t="shared" ca="1" si="48"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="3">
         <f t="shared" ca="1" si="50"/>
@@ -4157,7 +4160,7 @@
       </c>
       <c r="Z28" s="3">
         <f t="shared" ref="Z28" ca="1" si="53">RANDBETWEEN(-1,1)</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="3">
         <f ca="1">RANDBETWEEN(-1,1)</f>
@@ -4172,7 +4175,7 @@
       </c>
       <c r="AD28" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="3">
         <f t="shared" ca="1" si="54"/>
@@ -4184,11 +4187,11 @@
       </c>
       <c r="AG28" s="3">
         <f t="shared" ca="1" si="54"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25896800742598625</v>
+        <v>0.11938656940404813</v>
       </c>
     </row>
   </sheetData>
